--- a/Out/OPCIONES PARA IID1 - 1.xlsx
+++ b/Out/OPCIONES PARA IID1 - 1.xlsx
@@ -475,17 +475,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -495,17 +487,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -515,17 +499,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -535,26 +511,10 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -566,13 +526,13 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -586,13 +546,13 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -603,10 +563,26 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -615,10 +591,26 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -629,17 +621,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -647,19 +651,23 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -667,19 +675,23 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -687,19 +699,23 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -707,21 +723,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -731,21 +735,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -755,21 +747,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -779,21 +759,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -851,17 +819,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -871,17 +831,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -891,17 +843,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -911,17 +855,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1061,18 +997,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1081,18 +1017,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1101,18 +1037,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1121,26 +1057,10 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1150,17 +1070,9 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1170,17 +1082,9 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1215,17 +1119,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1235,17 +1143,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1255,17 +1175,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1275,17 +1207,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1294,17 +1238,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1314,17 +1250,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1334,17 +1262,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1354,17 +1274,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1374,11 +1286,7 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM3]</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1390,11 +1298,7 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM3]</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1406,11 +1310,7 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM3]</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -1422,11 +1322,7 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM3]</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1437,17 +1333,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -1457,17 +1345,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -1477,17 +1357,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -1497,17 +1369,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1647,17 +1511,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -1667,17 +1523,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -1687,17 +1535,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -1709,24 +1549,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1735,18 +1567,18 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1755,18 +1587,18 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1775,9 +1607,17 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -1787,9 +1627,17 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
@@ -1801,17 +1649,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1819,19 +1679,23 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1839,19 +1703,23 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1859,19 +1727,23 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1879,22 +1751,10 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1903,22 +1763,10 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1927,22 +1775,10 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1951,22 +1787,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -2023,17 +1847,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -2043,17 +1859,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -2063,17 +1871,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -2083,17 +1883,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -2233,18 +2025,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -2253,18 +2045,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2273,18 +2065,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2293,18 +2085,18 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2314,17 +2106,9 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2334,17 +2118,9 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2353,18 +2129,18 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2373,18 +2149,18 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2395,17 +2171,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2413,27 +2201,23 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2441,27 +2225,23 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2469,27 +2249,23 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2498,11 +2274,7 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -2514,11 +2286,7 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -2530,11 +2298,7 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -2546,11 +2310,7 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -2609,17 +2369,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -2629,17 +2381,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -2649,17 +2393,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -2669,17 +2405,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -2821,13 +2549,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -2841,13 +2569,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -2861,13 +2589,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -2879,17 +2607,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -2900,17 +2620,9 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2920,17 +2632,9 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2939,18 +2643,18 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2959,18 +2663,18 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2981,17 +2685,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2999,27 +2715,23 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3027,27 +2739,23 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3055,27 +2763,23 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3086,11 +2790,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3102,11 +2802,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3118,11 +2814,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3134,11 +2826,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3195,17 +2883,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -3215,17 +2895,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -3235,17 +2907,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -3255,17 +2919,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -3405,18 +3061,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -3425,18 +3081,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -3445,18 +3101,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -3465,17 +3121,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -3509,9 +3157,17 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -3521,9 +3177,17 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
@@ -3535,17 +3199,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3553,27 +3229,23 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3581,27 +3253,23 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3609,27 +3277,23 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3637,21 +3301,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -3661,21 +3313,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -3685,21 +3325,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -3709,21 +3337,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM2]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -3781,17 +3397,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -3801,17 +3409,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -3821,17 +3421,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -3841,17 +3433,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -3991,17 +3575,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -4011,17 +3587,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -4031,17 +3599,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -4051,17 +3611,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -4072,9 +3624,17 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -4084,9 +3644,17 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -4096,9 +3664,17 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -4108,9 +3684,17 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -4121,17 +3705,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4141,25 +3729,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4169,25 +3761,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4197,25 +3793,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4223,22 +3823,10 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4247,22 +3835,10 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4271,22 +3847,10 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4295,22 +3859,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -4367,17 +3919,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -4387,17 +3931,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -4407,17 +3943,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -4427,17 +3955,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -4577,17 +4097,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -4597,17 +4109,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -4617,17 +4121,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -4639,13 +4135,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -4657,13 +4153,17 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -4673,13 +4173,17 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
@@ -4690,11 +4194,7 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM1]</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -4706,11 +4206,7 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM1]</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -4723,17 +4219,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4743,25 +4243,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4771,25 +4275,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4799,25 +4307,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4825,17 +4337,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -4845,17 +4349,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -4865,17 +4361,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -4885,17 +4373,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -4953,17 +4433,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -4973,17 +4445,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -4993,17 +4457,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -5013,17 +4469,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -5163,18 +4611,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -5183,18 +4631,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -5203,18 +4651,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5223,18 +4671,18 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA3]</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -5244,11 +4692,7 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM1]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -5260,11 +4704,7 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM1]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -5276,11 +4716,7 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM1]</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -5292,11 +4728,7 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM1]</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -5309,17 +4741,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5329,25 +4765,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5357,25 +4797,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5385,25 +4829,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5412,17 +4860,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -5432,17 +4872,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -5452,17 +4884,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -5472,17 +4896,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5539,17 +4955,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -5559,17 +4967,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -5579,17 +4979,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -5599,17 +4991,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -5751,13 +5135,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -5771,13 +5155,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -5791,13 +5175,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -5809,26 +5193,10 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -5838,17 +5206,9 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -5858,17 +5218,9 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT1]</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -5903,17 +5255,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5923,17 +5279,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5943,17 +5311,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5963,17 +5343,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5981,17 +5373,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -6001,17 +5385,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -6021,17 +5397,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -6041,17 +5409,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -6062,11 +5422,7 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM3]</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -6078,11 +5434,7 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM3]</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -6094,11 +5446,7 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM3]</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -6110,11 +5458,7 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM3]</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -6125,17 +5469,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -6145,17 +5481,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -6165,17 +5493,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -6185,17 +5505,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
